--- a/Parameter_URI_예정.xlsx
+++ b/Parameter_URI_예정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\수업\세미\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2428114D-FE8A-44B3-8E91-B06E967D2D9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAD2526-98BF-403D-AA88-7D0DEF8AF436}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{AEC067CC-351A-442B-BB02-7C821A02A280}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{AEC067CC-351A-442B-BB02-7C821A02A280}"/>
   </bookViews>
   <sheets>
     <sheet name="URI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">공지사항!$B$2:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">멤버!$B$2:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">방소개!$B$2:$K$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">예약!$B$2:$K$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">예약!$B$2:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">일정!$B$2:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">질의응답!$B$2:$K$67</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="122">
   <si>
     <t>회원가입</t>
   </si>
@@ -427,6 +427,58 @@
   </si>
   <si>
     <t>reserve.jsp → cancel.jsp (→ main.jsp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약취소 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm_ok.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약번호, 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약하기 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약확인 메뉴 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약취소 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1504,7 +1556,7 @@
   </sheetPr>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -3438,19 +3490,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C32:E32"/>
@@ -3461,6 +3500,19 @@
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -4521,12 +4573,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -4539,11 +4590,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -5604,12 +5656,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -5622,11 +5673,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -5639,10 +5691,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K67"/>
+  <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5680,7 +5732,7 @@
     <row r="5" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="65" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
@@ -5688,7 +5740,9 @@
       <c r="G5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="41" t="s">
+        <v>116</v>
+      </c>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
       <c r="K5" s="42"/>
@@ -5696,13 +5750,13 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
       <c r="C6" s="39" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="30" t="s">
@@ -5716,11 +5770,11 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="19"/>
       <c r="C7" s="55" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="55" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="31" t="s">
@@ -5734,7 +5788,7 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="C8" s="64" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -5743,7 +5797,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
@@ -5752,13 +5806,13 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="39" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="30" t="s">
@@ -5772,11 +5826,11 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
       <c r="C10" s="56" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="56" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="33" t="s">
@@ -5790,7 +5844,7 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="64" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -5798,7 +5852,9 @@
       <c r="G11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="47" t="s">
+        <v>118</v>
+      </c>
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
       <c r="K11" s="48"/>
@@ -5806,13 +5862,13 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="39" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="30" t="s">
@@ -5826,11 +5882,11 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="26"/>
       <c r="C13" s="56" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="56" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="33" t="s">
@@ -5843,9 +5899,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
-      <c r="C14" s="64" t="s">
-        <v>73</v>
-      </c>
+      <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
       <c r="F14" s="25"/>
@@ -5859,15 +5913,11 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
-      <c r="C15" s="39" t="s">
-        <v>68</v>
-      </c>
+      <c r="C15" s="39"/>
       <c r="D15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>68</v>
-      </c>
+      <c r="E15" s="39"/>
       <c r="F15" s="8"/>
       <c r="G15" s="30" t="s">
         <v>59</v>
@@ -5879,9 +5929,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
-      <c r="C16" s="56" t="s">
-        <v>76</v>
-      </c>
+      <c r="C16" s="56"/>
       <c r="D16" s="36"/>
       <c r="E16" s="56"/>
       <c r="F16" s="27"/>
@@ -5895,9 +5943,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
-        <v>71</v>
-      </c>
+      <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
       <c r="F17" s="25"/>
@@ -5911,15 +5957,11 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="16"/>
-      <c r="C18" s="39" t="s">
-        <v>68</v>
-      </c>
+      <c r="C18" s="39"/>
       <c r="D18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="39" t="s">
-        <v>74</v>
-      </c>
+      <c r="E18" s="39"/>
       <c r="F18" s="8"/>
       <c r="G18" s="30" t="s">
         <v>59</v>
@@ -5931,13 +5973,9 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
-      <c r="C19" s="56" t="s">
-        <v>76</v>
-      </c>
+      <c r="C19" s="56"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="56" t="s">
-        <v>75</v>
-      </c>
+      <c r="E19" s="56"/>
       <c r="F19" s="27"/>
       <c r="G19" s="33" t="s">
         <v>57</v>
@@ -5949,9 +5987,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
-      <c r="C20" s="64" t="s">
-        <v>62</v>
-      </c>
+      <c r="C20" s="64"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="25"/>
@@ -5965,15 +6001,11 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
-      <c r="C21" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="39" t="s">
-        <v>77</v>
-      </c>
+      <c r="E21" s="39"/>
       <c r="F21" s="8"/>
       <c r="G21" s="30" t="s">
         <v>59</v>
@@ -5985,13 +6017,9 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
-      <c r="C22" s="56" t="s">
-        <v>79</v>
-      </c>
+      <c r="C22" s="56"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="56" t="s">
-        <v>81</v>
-      </c>
+      <c r="E22" s="56"/>
       <c r="F22" s="27"/>
       <c r="G22" s="33" t="s">
         <v>57</v>
@@ -6003,9 +6031,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="C23" s="64" t="s">
-        <v>73</v>
-      </c>
+      <c r="C23" s="64"/>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
       <c r="F23" s="25"/>
@@ -6019,15 +6045,11 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="16"/>
-      <c r="C24" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="C24" s="39"/>
       <c r="D24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>73</v>
-      </c>
+      <c r="E24" s="39"/>
       <c r="F24" s="8"/>
       <c r="G24" s="30" t="s">
         <v>59</v>
@@ -6039,9 +6061,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
-      <c r="C25" s="56" t="s">
-        <v>79</v>
-      </c>
+      <c r="C25" s="56"/>
       <c r="D25" s="36"/>
       <c r="E25" s="56"/>
       <c r="F25" s="27"/>
@@ -6055,9 +6075,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="24"/>
-      <c r="C26" s="64" t="s">
-        <v>83</v>
-      </c>
+      <c r="C26" s="64"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="25"/>
@@ -6071,15 +6089,11 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
-      <c r="C27" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="C27" s="39"/>
       <c r="D27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="39" t="s">
-        <v>78</v>
-      </c>
+      <c r="E27" s="39"/>
       <c r="F27" s="8"/>
       <c r="G27" s="30" t="s">
         <v>59</v>
@@ -6091,13 +6105,9 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
-      <c r="C28" s="56" t="s">
-        <v>79</v>
-      </c>
+      <c r="C28" s="56"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="56" t="s">
-        <v>75</v>
-      </c>
+      <c r="E28" s="56"/>
       <c r="F28" s="27"/>
       <c r="G28" s="33" t="s">
         <v>57</v>
@@ -6109,9 +6119,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="24"/>
-      <c r="C29" s="64" t="s">
-        <v>69</v>
-      </c>
+      <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
       <c r="F29" s="25"/>
@@ -6125,15 +6133,11 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="C30" s="39" t="s">
-        <v>63</v>
-      </c>
+      <c r="C30" s="39"/>
       <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="39" t="s">
-        <v>63</v>
-      </c>
+      <c r="E30" s="39"/>
       <c r="F30" s="8"/>
       <c r="G30" s="30" t="s">
         <v>59</v>
@@ -6399,317 +6403,47 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="44"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="50"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="48"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="16"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="44"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="48"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="16"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="44"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="26"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="50"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="24"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="44"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="26"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="50"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="24"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="48"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="16"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="44"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="24"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="48"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="16"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="44"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="26"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="50"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="24"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="48"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="16"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="52"/>
-    </row>
-    <row r="67" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="10"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="54"/>
+      <c r="G48" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="52"/>
+    </row>
+    <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="10"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="17">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -7770,12 +7504,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -7788,11 +7521,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -8853,12 +8587,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -8871,11 +8604,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
